--- a/data/output/Pedido_Semana_08_09022026_maf.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_maf.xlsx
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>135.98</v>
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>26.6</v>
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>28.9</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>4.77</v>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>5</v>
@@ -2029,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>74.90000000000001</v>
@@ -2272,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>14.2</v>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>10.9</v>
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>52.88</v>
@@ -3001,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>17.7</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>10.5</v>
@@ -3244,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>14.4</v>
@@ -3325,7 +3325,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>9.699999999999999</v>
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>8.75</v>
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>22.25</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>4.45</v>
@@ -3730,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>121.28</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>4.55</v>
@@ -3892,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>79.05</v>
@@ -3973,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>46.8</v>
@@ -4216,7 +4216,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>21.3</v>
@@ -4459,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>11</v>
@@ -4621,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4" t="n">
         <v>15.2</v>
@@ -4783,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" s="4" t="n">
         <v>18.9</v>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="4" t="n">
         <v>5.4</v>
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="4" t="n">
         <v>79.62</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M58" s="4" t="n">
         <v>36.9</v>
@@ -5350,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="4" t="n">
         <v>26.1</v>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="4" t="n">
         <v>5.93</v>
@@ -5512,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M62" s="4" t="n">
         <v>11.55</v>
@@ -5674,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M64" s="4" t="n">
         <v>5.22</v>
@@ -5755,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M65" s="4" t="n">
         <v>43.4</v>
@@ -5836,7 +5836,7 @@
         <v>29</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="M66" s="4" t="n">
         <v>160.8</v>
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="4" t="n">
         <v>8.300000000000001</v>
@@ -6160,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M70" s="4" t="n">
         <v>13.2</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" s="4" t="n">
         <v>14.1</v>
@@ -6727,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M77" s="4" t="n">
         <v>13.4</v>
@@ -7375,7 +7375,7 @@
         <v>3</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" s="4" t="n">
         <v>53.02</v>
@@ -7780,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" s="4" t="n">
         <v>28</v>
@@ -8023,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M93" s="4" t="n">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         </is>
       </c>
       <c r="C107" s="8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_maf.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_maf.xlsx
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="3" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="3" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="3" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="3" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" s="3" t="n">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R26" s="3" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>8</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="3" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R33" s="3" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="3" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" s="3" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="3" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R40" s="3" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R41" s="3" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>41</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R42" s="3" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R43" s="3" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>19</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R44" s="3" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>7</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R45" s="3" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>16</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R46" s="3" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R50" s="3" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>6</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R51" s="3" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>8</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R52" s="3" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>10</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R56" s="3" t="n">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>4</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="3" t="n">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R58" s="3" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="3" t="n">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>8</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R60" s="3" t="n">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>4</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="3" t="n">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>2</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R64" s="3" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>37</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R65" s="3" t="n">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>125</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="R66" s="3" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>6</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R67" s="3" t="n">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>4</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R68" s="3" t="n">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R70" s="3" t="n">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>6</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R71" s="3" t="n">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>3</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="3" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>2</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R73" s="3" t="n">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="3" t="n">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="Q81" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R81" s="3" t="n">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="Q84" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84" s="3" t="n">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>10</v>
       </c>
       <c r="Q85" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R85" s="3" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="Q86" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="3" t="n">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>4</v>
       </c>
       <c r="Q87" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R87" s="3" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>2</v>
       </c>
       <c r="Q88" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" s="3" t="n">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>6</v>
       </c>
       <c r="Q90" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="3" t="n">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="Q92" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R92" s="3" t="n">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="Q93" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R93" s="3" t="n">
         <v>0</v>
